--- a/clcore_ig/output/StructureDefinition-ProvinciasCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-ProvinciasCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -350,6 +350,12 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosProvinciasCL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -457,12 +463,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosProvinciasCL</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1497,13 +1497,11 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1533,7 +1531,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>103</v>
@@ -1541,10 +1539,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1644,14 +1642,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1673,13 +1671,13 @@
         <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1749,10 +1747,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1775,19 +1773,19 @@
         <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -1836,7 +1834,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1848,18 +1846,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1959,14 +1957,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1988,13 +1986,13 @@
         <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2064,10 +2062,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2093,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2151,7 +2149,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2163,18 +2161,18 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2200,13 +2198,13 @@
         <v>85</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2256,7 +2254,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2268,18 +2266,18 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2302,17 +2300,17 @@
         <v>98</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2337,11 +2335,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2371,7 +2371,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>146</v>
@@ -2476,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>152</v>
@@ -2583,7 +2583,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>160</v>
@@ -2690,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>167</v>
